--- a/xlsx/磁盘空间_intext.xlsx
+++ b/xlsx/磁盘空间_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>磁盘空间</t>
   </si>
@@ -29,7 +29,7 @@
     <t>硬盘人</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_磁盘空间</t>
+    <t>政策_政策_维基百科_磁盘空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IBM</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E6%9D%BF</t>
   </si>
   <si>
-    <t>主機板</t>
+    <t>主机板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ATA</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F%E5%AD%98%E5%8F%96</t>
   </si>
   <si>
-    <t>隨機存取</t>
+    <t>随机存取</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E5%99%A8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%88%90%E8%AE%BE%E5%A4%87%E7%94%B5%E8%B7%AF</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%8F%92%E6%8B%94</t>
   </si>
   <si>
-    <t>熱插拔</t>
+    <t>热插拔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E7%AE%B1</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E8%A8%98%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>筆記型電腦</t>
+    <t>笔记型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E7%B3%BB%E7%BB%9F</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%B1%80%E5%94%AF%E4%B8%80%E6%A8%99%E8%AD%98%E5%88%86%E5%8D%80%E8%A1%A8</t>
   </si>
   <si>
-    <t>全局唯一標識分區表</t>
+    <t>全局唯一标识分区表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%96%8B%E6%A9%9F%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>主開機紀錄</t>
+    <t>主开机纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GUID</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>手機</t>
+    <t>手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%A1%AC%E7%A2%9F</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E7%9B%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>數碼相機</t>
+    <t>数码相机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CompactFlash</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>桌上型電腦</t>
+    <t>桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%A4%A7%E5%B0%8F%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>檔案大小轉換</t>
+    <t>档案大小转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8D%B7%E5%85%AC%E5%8F%B8</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E9%A8%B0</t>
   </si>
   <si>
-    <t>昆騰</t>
+    <t>昆腾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UDMA</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%80%E8%9E%BA%E5%84%80</t>
   </si>
   <si>
-    <t>陀螺儀</t>
+    <t>陀螺仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E6%8B%93</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E7%92%B0%E7%90%83%E5%84%B2%E5%AD%98%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>日立環球儲存科技</t>
+    <t>日立环球储存科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E7%9B%B4%E5%AF%AB%E5%85%A5%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>垂直寫入技術</t>
+    <t>垂直写入技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Terabyte</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
+    <t>三星电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%80%81%E7%A1%AC%E7%9B%98</t>
@@ -437,9 +437,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E7%9B%A4%E7%B7%A9%E5%AD%98</t>
   </si>
   <si>
-    <t>磁盤緩存</t>
+    <t>磁盘缓存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%9B%98%E5%88%86%E5%8C%BA</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A6%96%E8%A8%8A%E9%8C%84%E5%BD%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>數位視訊錄影機</t>
+    <t>数位视讯录影机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E5%AE%A4</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>影像掃描器</t>
+    <t>影像扫描器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%A0%81%E7%BB%98%E5%9B%BE%E6%9D%BF</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E8%81%B2%E5%99%A8</t>
   </si>
   <si>
-    <t>揚聲器</t>
+    <t>扬声器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E5%8D%B0%E6%9C%BA</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BA%8B%E5%8B%99%E6%A9%9F</t>
   </si>
   <si>
-    <t>多功能事務機</t>
+    <t>多功能事务机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E5%AD%98%E5%82%A8</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%B8%B6</t>
   </si>
   <si>
-    <t>磁帶</t>
+    <t>磁带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E7%9B%98</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E9%87%8D%E8%A4%87%E9%8C%84%E5%AF%AB%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>可重複錄寫光碟</t>
+    <t>可重复录写光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DVD%2BRW</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>藍光光碟</t>
+    <t>蓝光光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E5%AD%98%E7%9B%98</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E5%8D%A1</t>
   </si>
   <si>
-    <t>記憶卡</t>
+    <t>记忆卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%A4%84%E7%90%86%E5%99%A8</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89%E5%99%A8</t>
   </si>
   <si>
-    <t>電源供應器</t>
+    <t>电源供应器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%9B%BA%E6%80%81%E7%A1%AC%E7%9B%98</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9D%A2_(%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80)</t>
   </si>
   <si>
-    <t>介面 (資訊科技)</t>
+    <t>介面 (资讯科技)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B2%E8%A1%8C%E7%AB%AF%E5%8F%A3</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3305,7 +3302,7 @@
         <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3331,10 +3328,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3360,10 +3357,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3389,10 +3386,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3418,10 +3415,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3447,10 +3444,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3476,10 +3473,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3505,10 +3502,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3534,10 +3531,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3592,10 +3589,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3621,10 +3618,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3650,10 +3647,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3679,10 +3676,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3708,10 +3705,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3737,10 +3734,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3766,10 +3763,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3795,10 +3792,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3824,10 +3821,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
         <v>173</v>
-      </c>
-      <c r="F93" t="s">
-        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3853,10 +3850,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3882,10 +3879,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
         <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3911,10 +3908,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
         <v>179</v>
-      </c>
-      <c r="F96" t="s">
-        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3940,10 +3937,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3969,10 +3966,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3998,10 +3995,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4027,10 +4024,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4056,10 +4053,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" t="s">
         <v>169</v>
-      </c>
-      <c r="F101" t="s">
-        <v>170</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4085,10 +4082,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4114,10 +4111,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4143,10 +4140,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" t="s">
         <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4172,10 +4169,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
         <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4201,10 +4198,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
         <v>197</v>
-      </c>
-      <c r="F106" t="s">
-        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4230,10 +4227,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" t="s">
         <v>199</v>
-      </c>
-      <c r="F107" t="s">
-        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4259,10 +4256,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" t="s">
         <v>201</v>
-      </c>
-      <c r="F108" t="s">
-        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4288,10 +4285,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>203</v>
-      </c>
-      <c r="F109" t="s">
-        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4317,10 +4314,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
         <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4346,10 +4343,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" t="s">
         <v>207</v>
-      </c>
-      <c r="F111" t="s">
-        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4375,10 +4372,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" t="s">
         <v>209</v>
-      </c>
-      <c r="F112" t="s">
-        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4404,10 +4401,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
-      </c>
-      <c r="F113" t="s">
-        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4433,10 +4430,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
         <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4462,10 +4459,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
         <v>215</v>
-      </c>
-      <c r="F115" t="s">
-        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4491,10 +4488,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
         <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4520,10 +4517,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4549,10 +4546,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4578,10 +4575,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
         <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4607,10 +4604,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
         <v>225</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4636,10 +4633,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
         <v>227</v>
-      </c>
-      <c r="F121" t="s">
-        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4665,10 +4662,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>228</v>
+      </c>
+      <c r="F122" t="s">
         <v>229</v>
-      </c>
-      <c r="F122" t="s">
-        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>30</v>
@@ -4694,10 +4691,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
         <v>231</v>
-      </c>
-      <c r="F123" t="s">
-        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4723,10 +4720,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" t="s">
         <v>233</v>
-      </c>
-      <c r="F124" t="s">
-        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4781,10 +4778,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" t="s">
         <v>235</v>
-      </c>
-      <c r="F126" t="s">
-        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4810,10 +4807,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" t="s">
         <v>237</v>
-      </c>
-      <c r="F127" t="s">
-        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4839,10 +4836,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
         <v>239</v>
-      </c>
-      <c r="F128" t="s">
-        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4868,10 +4865,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" t="s">
         <v>241</v>
-      </c>
-      <c r="F129" t="s">
-        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4897,10 +4894,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
         <v>243</v>
-      </c>
-      <c r="F130" t="s">
-        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4926,10 +4923,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" t="s">
         <v>245</v>
-      </c>
-      <c r="F131" t="s">
-        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4955,10 +4952,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" t="s">
         <v>247</v>
-      </c>
-      <c r="F132" t="s">
-        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4984,10 +4981,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>248</v>
+      </c>
+      <c r="F133" t="s">
         <v>249</v>
-      </c>
-      <c r="F133" t="s">
-        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5013,10 +5010,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>250</v>
+      </c>
+      <c r="F134" t="s">
         <v>251</v>
-      </c>
-      <c r="F134" t="s">
-        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5042,10 +5039,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" t="s">
         <v>253</v>
-      </c>
-      <c r="F135" t="s">
-        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5071,10 +5068,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136" t="s">
         <v>255</v>
-      </c>
-      <c r="F136" t="s">
-        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -5100,10 +5097,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
